--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhWQg5IA1Pp7A3IG7E5X8RLWa7gaA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgIULpZCkA8uuW77plUHhcdRT4BEQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="230">
   <si>
     <t>Código</t>
   </si>
@@ -463,31 +463,172 @@
     <t>R41</t>
   </si>
   <si>
+    <t>Modo invitado</t>
+  </si>
+  <si>
+    <t>Cuando el usuario no ha iniciado sesión, sólo se le permite ver los productos.</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>Modo usuario</t>
+  </si>
+  <si>
+    <t>Cuando el usuario ha iniciado sesión, puede entrar en su perfil e interactuar con el sitio web.</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>Modo administrador</t>
+  </si>
+  <si>
+    <t>Existirá un usuario administrador que podra mantener la página.</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Diseñar e implementar un logo para la página web.</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>Carrusel</t>
+  </si>
+  <si>
+    <t>Aparecerá un carrusel con imágenes de cada publicación disponible.</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>Publicación</t>
+  </si>
+  <si>
+    <t>Visualización de la publicación en modo usuario e invitado.</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>Menú de nombres</t>
+  </si>
+  <si>
+    <t>Menú desplegable para ver los nombres disponibles.</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>Dar “Me gusta” a una publicación</t>
+  </si>
+  <si>
+    <t>El usuario puede dar “Me gusta” a una publicación.</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>Quitar “Me gusta” de una publicación</t>
+  </si>
+  <si>
+    <t>El usuario puede quitar “Me gusta” a una publicación.</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>Ordenar por nombre</t>
+  </si>
+  <si>
+    <t>El usuario puede ordenar las publicaciones por nombre.</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>Ordenar por “me gusta”</t>
+  </si>
+  <si>
+    <t>El usuario puede ordenar las publicaciones por número de “me gustas”.</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>Apartado de compra</t>
+  </si>
+  <si>
+    <t>Habrá una pestaña para acceder a productos originales que podrán comprarse de forma online.</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>Añadir producto al carrito de compra</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán añadir productos a su carrito de compra.</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>Ver productos del carrito</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán ver los productos que hayan añadido al carrito.</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>Eliminar un producto del carrito</t>
+  </si>
+  <si>
+    <t>Los usuarios podrán los productos de su propio carrito.</t>
+  </si>
+  <si>
+    <t>R56</t>
+  </si>
+  <si>
+    <t>Crear perfil</t>
+  </si>
+  <si>
+    <t>Un usuario podrá crear su perfil en el sitio web.</t>
+  </si>
+  <si>
+    <t>R57</t>
+  </si>
+  <si>
+    <t>Editar perfil</t>
+  </si>
+  <si>
+    <t>Un usuario podrá editar su perfil en el sitio web.</t>
+  </si>
+  <si>
+    <t>R58</t>
+  </si>
+  <si>
     <t>Eliminar perfil</t>
   </si>
   <si>
-    <t>Eliminar su perfil en el sitio web.</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>Modo invitado</t>
-  </si>
-  <si>
-    <t>Cuando el usuario no ha iniciado sesión, sólo se le permite ver los productos.</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>Modo usuario</t>
-  </si>
-  <si>
-    <t>Cuando el usuario ha iniciado sesión, puede entrar en su perfil e interactuar con el sitio web.</t>
-  </si>
-  <si>
-    <t>R44</t>
+    <t>Un usuario podrá eliminar su perfil en el sitio web.</t>
+  </si>
+  <si>
+    <t>R59</t>
   </si>
   <si>
     <t>Realizar búsqueda</t>
@@ -496,58 +637,52 @@
     <t>Poder realizar una búsqueda de las publicaciones.</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>Publicación</t>
-  </si>
-  <si>
-    <t>Visualización de la publicación en modo usuario e invitado.</t>
-  </si>
-  <si>
-    <t>R46</t>
-  </si>
-  <si>
-    <t>Ordenar por nombre</t>
-  </si>
-  <si>
-    <t>El usuario puede ordenar las publicaciones por nombre.</t>
-  </si>
-  <si>
-    <t>R47</t>
-  </si>
-  <si>
-    <t>Ordenar por “me gusta”</t>
-  </si>
-  <si>
-    <t>El usuario puede ordenar las publicaciones por número de “me gustas”.</t>
-  </si>
-  <si>
-    <t>R48</t>
-  </si>
-  <si>
-    <t>Dar “Me gusta” a una publicación</t>
-  </si>
-  <si>
-    <t>El usuario puede dar “Me gusta” a una publicación.</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>R49</t>
-  </si>
-  <si>
-    <t>Quitar “Me gusta” de una publicación</t>
-  </si>
-  <si>
-    <t>El usuario puede quitar “Me gusta” a una publicación.</t>
-  </si>
-  <si>
-    <t>R50</t>
+    <t>R60</t>
+  </si>
+  <si>
+    <t>Añadir nombre al buscador</t>
+  </si>
+  <si>
+    <t>Permite buscar un nombre, además al pinchar el nombre en el menú, se añadirá ese nombre en el buscador y se buscará directamente.</t>
+  </si>
+  <si>
+    <t>Opcional</t>
+  </si>
+  <si>
+    <t>Difícil</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>R61</t>
+  </si>
+  <si>
+    <t>Lista de guardados</t>
+  </si>
+  <si>
+    <t>En el perfil del usuario aparecerá una lista con las publicaciones guardadas.</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>Guardar publicación en el perfil</t>
+  </si>
+  <si>
+    <t>Permite guardar una publicación en la lista de guardados.</t>
+  </si>
+  <si>
+    <t>R63</t>
+  </si>
+  <si>
+    <t>Quitar publicación del perfil</t>
+  </si>
+  <si>
+    <t>Permite al usuario quitar una publicación de la lista guardados.</t>
+  </si>
+  <si>
+    <t>R64</t>
   </si>
   <si>
     <t>Añadir comentario</t>
@@ -556,13 +691,16 @@
     <t>Añadir comentarios a una publicación.</t>
   </si>
   <si>
-    <t>Difícil</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>R51</t>
+    <t>R65</t>
+  </si>
+  <si>
+    <t>Editar comentario</t>
+  </si>
+  <si>
+    <t>Editar comentarios de una publicación.</t>
+  </si>
+  <si>
+    <t>R66</t>
   </si>
   <si>
     <t>Eliminar comentario</t>
@@ -571,85 +709,34 @@
     <t>Eliminar comentarios de una publicación.</t>
   </si>
   <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>Editar biografía</t>
-  </si>
-  <si>
-    <t>Modificar la biografía del usuario.</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
-    <t>Menú de nombres</t>
-  </si>
-  <si>
-    <t>Menú desplegable para ver los nombres disponibles.</t>
-  </si>
-  <si>
-    <t>R54</t>
-  </si>
-  <si>
-    <t>Añadir nombre al buscador</t>
-  </si>
-  <si>
-    <t>Al pinchar en el nombre del menú, se añadirá ese nombre en el buscador y se buscará directamente.</t>
-  </si>
-  <si>
-    <t>Opcional</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>R55</t>
-  </si>
-  <si>
-    <t>Agregar links de compra</t>
-  </si>
-  <si>
-    <t>Se enlazan los productos con la página oficial de compra de ese producto.</t>
-  </si>
-  <si>
-    <t>R56</t>
-  </si>
-  <si>
-    <t>Guardar publicación</t>
-  </si>
-  <si>
-    <t>Permite guardar una publicación en la lista de guardados.</t>
-  </si>
-  <si>
-    <t>R57</t>
-  </si>
-  <si>
-    <t>Quitar publicación</t>
-  </si>
-  <si>
-    <t>Permite al usuario quitar una publicación de la lista guardados.</t>
-  </si>
-  <si>
-    <t>R58</t>
-  </si>
-  <si>
-    <t>Interacción con imagen</t>
-  </si>
-  <si>
-    <t>En la imagen de la publicación el usuario podrá interactuar con ella de modo que cada prenda sea el enlace al producto.</t>
-  </si>
-  <si>
-    <t>R59</t>
-  </si>
-  <si>
-    <t>Editar comentario</t>
-  </si>
-  <si>
-    <t>Editar comentarios de una publicación.</t>
-  </si>
-  <si>
-    <t>R60</t>
+    <t>R67</t>
+  </si>
+  <si>
+    <t>Correo de confirmación de cuenta</t>
+  </si>
+  <si>
+    <t>El usuario recibirá un correo de confirmación al registrarse.</t>
+  </si>
+  <si>
+    <t>R68</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>El usuario podrá restablecer su contraseña.</t>
+  </si>
+  <si>
+    <t>R69</t>
+  </si>
+  <si>
+    <t>Pago con PayPal</t>
+  </si>
+  <si>
+    <t>El usuario tendrá PayPal como forma de pago.</t>
+  </si>
+  <si>
+    <t>R70</t>
   </si>
   <si>
     <t>Función multilenguaje</t>
@@ -681,9 +768,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -700,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -723,16 +810,20 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2567,19 +2658,19 @@
       <c r="C39" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2609,19 +2700,19 @@
       <c r="C40" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2651,19 +2742,19 @@
       <c r="C41" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2693,19 +2784,19 @@
       <c r="C42" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2729,25 +2820,25 @@
       <c r="A43" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -2771,25 +2862,25 @@
       <c r="A44" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="5"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2811,27 +2902,27 @@
     </row>
     <row r="45" ht="24.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G45" s="6" t="s">
+      <c r="F45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="6"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2858,22 +2949,22 @@
       <c r="B46" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="E46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="6"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2897,25 +2988,25 @@
       <c r="A47" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="6"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -2939,25 +3030,25 @@
       <c r="A48" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="9" t="s">
+      <c r="F48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="6"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -2987,19 +3078,19 @@
       <c r="C49" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="G49" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" s="5"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -3029,19 +3120,19 @@
       <c r="C50" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50" s="6" t="s">
+      <c r="F50" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H50" s="6"/>
+      <c r="G50" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="5"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -3071,19 +3162,19 @@
       <c r="C51" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H51" s="6"/>
+      <c r="F51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="5"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -3105,27 +3196,27 @@
     </row>
     <row r="52" ht="24.75" customHeight="1">
       <c r="A52" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H52" s="6"/>
+      <c r="F52" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H52" s="5"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -3147,27 +3238,27 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="F53" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="G53" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="5"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -3189,27 +3280,27 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="G54" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="5"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -3231,27 +3322,27 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="D55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H55" s="6"/>
+      <c r="F55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="5"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3273,27 +3364,27 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D56" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="F56" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H56" s="6"/>
+      <c r="G56" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" s="5"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3315,27 +3406,27 @@
     </row>
     <row r="57" ht="24.75" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="6"/>
+      <c r="F57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H57" s="5"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -3357,27 +3448,27 @@
     </row>
     <row r="58" ht="24.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D58" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" s="6"/>
+      <c r="F58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" s="5"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -3399,27 +3490,27 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H59" s="6"/>
+      <c r="F59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="5"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3441,27 +3532,27 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H60" s="6"/>
+      <c r="F60" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="5"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -3483,27 +3574,27 @@
     </row>
     <row r="61" ht="24.75" customHeight="1">
       <c r="A61" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="G61" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H61" s="6"/>
+      <c r="H61" s="5"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -3524,14 +3615,28 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="5"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -3552,14 +3657,28 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="6"/>
+      <c r="A63" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" s="5"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -3580,14 +3699,28 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="6"/>
+      <c r="A64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" s="5"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -3608,6 +3741,28 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" s="5"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -3627,6 +3782,28 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H66" s="5"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -3646,7 +3823,28 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="H67" s="6"/>
+      <c r="A67" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" s="5"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -3667,7 +3865,28 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="H68" s="6"/>
+      <c r="A68" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="5"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -3688,7 +3907,28 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="H69" s="6"/>
+      <c r="A69" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H69" s="5"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -3709,7 +3949,28 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="H70" s="6"/>
+      <c r="A70" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H70" s="5"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -3730,7 +3991,28 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="H71" s="6"/>
+      <c r="A71" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H71" s="5"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -3751,7 +4033,7 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="H72" s="6"/>
+      <c r="H72" s="5"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -3772,7 +4054,14 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="H73" s="6"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -3793,14 +4082,14 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="4"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -3821,14 +4110,14 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="4"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
